--- a/temps_calculs.xlsx
+++ b/temps_calculs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudoniantonin/Documents/CESI/S6/Recherche opérationnel/A3_RO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minev\Documents\CESI_local\RechercheOperationnelle\A3_RO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5EA4AF-88BD-3245-8086-4532FE5E57A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D2DD6A-D4FA-4FB7-A94B-39E5C0040876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{932FCE5F-9918-46E4-9C66-DA2929BA02C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{932FCE5F-9918-46E4-9C66-DA2929BA02C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Pulp" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Nb ville</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Capacité du camion</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Cuts</t>
   </si>
 </sst>
 </file>
@@ -104,13 +110,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63414018-CFF1-40AD-922D-EEB0569B7BA7}" name="Tableau1" displayName="Tableau1" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{63414018-CFF1-40AD-922D-EEB0569B7BA7}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63414018-CFF1-40AD-922D-EEB0569B7BA7}" name="Tableau1" displayName="Tableau1" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{63414018-CFF1-40AD-922D-EEB0569B7BA7}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9F40B12A-B1FD-4D34-85CA-620B7E831678}" name="Nb ville"/>
     <tableColumn id="2" xr3:uid="{CB0A4C5F-33A1-45DE-B3F9-315CD01E8438}" name="Nb camions"/>
     <tableColumn id="3" xr3:uid="{0C63B83D-C256-463B-92E8-B324C0CC6C63}" name="Capacité du camion"/>
     <tableColumn id="4" xr3:uid="{C3BC68E7-33B2-6243-AFAF-26DD057619E9}" name="Temps calcul (s)"/>
+    <tableColumn id="5" xr3:uid="{DF1143B3-CA3F-4263-A01C-F3BF719029E0}" name="Params"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -446,20 +453,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A0BEB5-67B3-4897-A5DB-CB82FB0A907D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +480,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -487,7 +498,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -501,7 +512,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -515,7 +526,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -526,10 +537,10 @@
         <v>1000</v>
       </c>
       <c r="D5">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -540,10 +551,10 @@
         <v>1000</v>
       </c>
       <c r="D6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -554,10 +565,10 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -568,10 +579,10 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -582,21 +593,164 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>300</v>
       </c>
-      <c r="D10">
-        <v>0.24</v>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+      <c r="D15">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>400</v>
+      </c>
+      <c r="D20">
+        <v>411</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -612,12 +766,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="157" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20</v>
       </c>
@@ -645,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>38</v>
       </c>
